--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +540,40 @@
         <v>6.062884</v>
       </c>
       <c r="I2">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J2">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1293823333333333</v>
+        <v>0.8220243333333334</v>
       </c>
       <c r="N2">
-        <v>0.388147</v>
+        <v>2.466073</v>
       </c>
       <c r="O2">
-        <v>0.006916257066299042</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="P2">
-        <v>0.006916257066299042</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="Q2">
-        <v>0.2614766928831112</v>
+        <v>1.661279392725778</v>
       </c>
       <c r="R2">
-        <v>2.353290235948</v>
+        <v>14.951514534532</v>
       </c>
       <c r="S2">
-        <v>0.002384212398560448</v>
+        <v>0.009551752229424166</v>
       </c>
       <c r="T2">
-        <v>0.002384212398560448</v>
+        <v>0.009551752229424166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +602,10 @@
         <v>6.062884</v>
       </c>
       <c r="I3">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J3">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.52590566666667</v>
+        <v>14.52590566666666</v>
       </c>
       <c r="N3">
-        <v>43.577717</v>
+        <v>43.57771699999999</v>
       </c>
       <c r="O3">
-        <v>0.7764962582074056</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="P3">
-        <v>0.7764962582074056</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="Q3">
         <v>29.35629368398089</v>
@@ -635,10 +632,10 @@
         <v>264.206643155828</v>
       </c>
       <c r="S3">
-        <v>0.267678310465773</v>
+        <v>0.1687880105365759</v>
       </c>
       <c r="T3">
-        <v>0.267678310465773</v>
+        <v>0.1687880105365759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +664,10 @@
         <v>6.062884</v>
       </c>
       <c r="I4">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J4">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.039673000000001</v>
+        <v>6.197826333333334</v>
       </c>
       <c r="N4">
-        <v>12.119019</v>
+        <v>18.593479</v>
       </c>
       <c r="O4">
-        <v>0.215944605511217</v>
+        <v>0.2876587963516838</v>
       </c>
       <c r="P4">
-        <v>0.215944605511217</v>
+        <v>0.2876587963516837</v>
       </c>
       <c r="Q4">
-        <v>8.164022932310669</v>
+        <v>12.52556737038178</v>
       </c>
       <c r="R4">
-        <v>73.47620639079601</v>
+        <v>112.730106333436</v>
       </c>
       <c r="S4">
-        <v>0.07444168152321065</v>
+        <v>0.07201745629225147</v>
       </c>
       <c r="T4">
-        <v>0.07444168152321065</v>
+        <v>0.07201745629225145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.020961333333334</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H5">
-        <v>6.062884</v>
+        <v>18.154049</v>
       </c>
       <c r="I5">
-        <v>0.3447258214530571</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J5">
-        <v>0.3447258214530571</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01202633333333333</v>
+        <v>0.8220243333333334</v>
       </c>
       <c r="N5">
-        <v>0.036079</v>
+        <v>2.466073</v>
       </c>
       <c r="O5">
-        <v>0.000642879215078316</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="P5">
-        <v>0.000642879215078316</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="Q5">
-        <v>0.02430475464844445</v>
+        <v>4.974356675508556</v>
       </c>
       <c r="R5">
-        <v>0.218742791836</v>
+        <v>44.76921007957701</v>
       </c>
       <c r="S5">
-        <v>0.000221617065512969</v>
+        <v>0.02860074149675724</v>
       </c>
       <c r="T5">
-        <v>0.000221617065512969</v>
+        <v>0.02860074149675725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.841556666666667</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H6">
-        <v>11.52467</v>
+        <v>18.154049</v>
       </c>
       <c r="I6">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J6">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1293823333333333</v>
+        <v>14.52590566666666</v>
       </c>
       <c r="N6">
-        <v>0.388147</v>
+        <v>43.57771699999999</v>
       </c>
       <c r="O6">
-        <v>0.006916257066299042</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="P6">
-        <v>0.006916257066299042</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="Q6">
-        <v>0.4970295651655556</v>
+        <v>87.90133441401477</v>
       </c>
       <c r="R6">
-        <v>4.473266086490001</v>
+        <v>791.1120097261329</v>
       </c>
       <c r="S6">
-        <v>0.004532044667738594</v>
+        <v>0.5054006993855589</v>
       </c>
       <c r="T6">
-        <v>0.004532044667738594</v>
+        <v>0.5054006993855589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.841556666666667</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H7">
-        <v>11.52467</v>
+        <v>18.154049</v>
       </c>
       <c r="I7">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J7">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.52590566666667</v>
+        <v>6.197826333333334</v>
       </c>
       <c r="N7">
-        <v>43.577717</v>
+        <v>18.593479</v>
       </c>
       <c r="O7">
-        <v>0.7764962582074056</v>
+        <v>0.2876587963516838</v>
       </c>
       <c r="P7">
-        <v>0.7764962582074056</v>
+        <v>0.2876587963516837</v>
       </c>
       <c r="Q7">
-        <v>55.80208975315445</v>
+        <v>37.50521431627456</v>
       </c>
       <c r="R7">
-        <v>502.21880777839</v>
+        <v>337.5469288464711</v>
       </c>
       <c r="S7">
-        <v>0.5088179477416326</v>
+        <v>0.2156413400594323</v>
       </c>
       <c r="T7">
-        <v>0.5088179477416326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.841556666666667</v>
-      </c>
-      <c r="H8">
-        <v>11.52467</v>
-      </c>
-      <c r="I8">
-        <v>0.6552741785469429</v>
-      </c>
-      <c r="J8">
-        <v>0.6552741785469429</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>4.039673000000001</v>
-      </c>
-      <c r="N8">
-        <v>12.119019</v>
-      </c>
-      <c r="O8">
-        <v>0.215944605511217</v>
-      </c>
-      <c r="P8">
-        <v>0.215944605511217</v>
-      </c>
-      <c r="Q8">
-        <v>15.51863274430334</v>
-      </c>
-      <c r="R8">
-        <v>139.66769469873</v>
-      </c>
-      <c r="S8">
-        <v>0.1415029239880064</v>
-      </c>
-      <c r="T8">
-        <v>0.1415029239880064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.841556666666667</v>
-      </c>
-      <c r="H9">
-        <v>11.52467</v>
-      </c>
-      <c r="I9">
-        <v>0.6552741785469429</v>
-      </c>
-      <c r="J9">
-        <v>0.6552741785469429</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01202633333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.036079</v>
-      </c>
-      <c r="O9">
-        <v>0.000642879215078316</v>
-      </c>
-      <c r="P9">
-        <v>0.000642879215078316</v>
-      </c>
-      <c r="Q9">
-        <v>0.04619984099222223</v>
-      </c>
-      <c r="R9">
-        <v>0.41579856893</v>
-      </c>
-      <c r="S9">
-        <v>0.000421262149565347</v>
-      </c>
-      <c r="T9">
-        <v>0.000421262149565347</v>
+        <v>0.2156413400594323</v>
       </c>
     </row>
   </sheetData>
